--- a/WP.POCZTA/#1-Przypadek_testowy.xlsx
+++ b/WP.POCZTA/#1-Przypadek_testowy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Warunki początkowe:</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>–  Niezalogowany użytkownik, posiadający aktywne konto w aplikacji.</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
@@ -474,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,6 +602,11 @@
       </c>
       <c r="B19" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/WP.POCZTA/#1-Przypadek_testowy.xlsx
+++ b/WP.POCZTA/#1-Przypadek_testowy.xlsx
@@ -123,7 +123,7 @@
     <t>–  Niezalogowany użytkownik, posiadający aktywne konto w aplikacji.</t>
   </si>
   <si>
-    <t>…</t>
+    <t>..</t>
   </si>
 </sst>
 </file>
